--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1009,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1102,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1846,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1939,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2036,10 +2048,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2083,28 +2095,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2129,28 +2141,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2568,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2661,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2787,10 +2799,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2834,28 +2846,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2880,28 +2892,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2989,10 +3001,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3036,28 +3048,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3082,28 +3094,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3220,10 +3232,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3267,28 +3279,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3313,28 +3325,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3422,10 +3434,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3469,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3515,28 +3527,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3595,10 +3607,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3642,28 +3654,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3688,28 +3700,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3826,10 +3838,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3873,28 +3885,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3919,28 +3931,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4028,10 +4040,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4075,28 +4087,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4121,28 +4133,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4288,10 +4300,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4335,28 +4347,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4381,28 +4393,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4577,10 +4589,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4624,28 +4636,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4670,28 +4682,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4837,10 +4849,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4884,28 +4896,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4930,28 +4942,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5051,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5086,28 +5098,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5144,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5241,10 +5253,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5288,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5334,28 +5346,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5443,10 +5455,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5490,28 +5502,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5536,28 +5548,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5703,10 +5715,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5750,28 +5762,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5796,28 +5808,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5888,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5923,28 +5935,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5981,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6078,10 +6090,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6125,28 +6137,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6171,28 +6183,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6309,10 +6321,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6356,28 +6368,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6402,28 +6414,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6540,10 +6552,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6587,28 +6599,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6633,28 +6645,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6742,10 +6754,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6789,28 +6801,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6835,28 +6847,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6915,10 +6927,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6962,28 +6974,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7008,28 +7020,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7088,10 +7100,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7135,28 +7147,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7181,28 +7193,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7261,10 +7273,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7308,28 +7320,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7354,28 +7366,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7463,10 +7475,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7510,28 +7522,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7556,28 +7568,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7665,10 +7677,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7712,28 +7724,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7758,28 +7770,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7838,10 +7850,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7885,28 +7897,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7931,28 +7943,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8011,10 +8023,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8058,28 +8070,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8104,28 +8116,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8213,10 +8225,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8260,28 +8272,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8306,28 +8318,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8415,10 +8427,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8462,28 +8474,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8508,28 +8520,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8600,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8635,28 +8647,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8693,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8790,10 +8802,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8837,28 +8849,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8883,28 +8895,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8975,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
